--- a/biology/Virologie/Caliciviridae/Caliciviridae.xlsx
+++ b/biology/Virologie/Caliciviridae/Caliciviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Caliciviridae appartient au groupe IV des virus à ARN simple brin (à polarité positive). Ils sont retrouvés chez un grand nombre d'organismes tels que l'être humain, les primates, le chat, le porc, le poulet, les reptiles, les dauphins, et les amphibiens.
 Les calicivirus ont été peu étudiés du fait des difficultés de leur culture et qu'il n'existe pas de modèle animal convenable. Les avancées en biologie moléculaire ont permis l'étude de son génome.
@@ -513,7 +525,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des virus non enveloppés, icosaédriques, mesurant 35 à 39 nm. Leur génome est de type ARN simple brin et code des protéines structurales (capside) et non structurales (polymérase, protéase).
 </t>
@@ -544,7 +558,9 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Caliciviridae sont divisés en 4 genres :
 le genre Vesivirus, qui n’infecte que l’animal,
@@ -578,7 +594,9 @@
           <t>Pathogénécité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur transmission est féco-orale, soit par contact inter-humain, soit par ingestion d’un aliment contaminé. L’hypothèse d’une transmission par voie aérienne a aussi été avancée.
 Les Calcivirus ont un tropisme entérique et affectent les entérocytes matures.
@@ -611,7 +629,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pathologies liées à cette famille de virus peuvent toucher la peau, ils peuvent être responsables de pneumonie, d'avortement, d'encéphalite, de myocardite, d'hépatites, de troubles de la coagulation.
 Chez l'homme, ils sont fréquemment à l’origine d’épidémies de gastro-entérite, particulièrement ceux du genre NLV. La période d'incubation est de 12 à 24 heures ; la durée des signes cliniques, de 24 à 48 heures.
@@ -643,7 +663,9 @@
           <t>Méthodes de diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>microscopie électronique,
 amplification des acides nucléiques par RT-PCR.</t>
